--- a/01_Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/01_Tasks/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7646748-CF23-4655-BEF3-F2A4ED57C057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF260CB-74EB-4AEC-A86B-ED9F7BF3271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="26352" windowHeight="16656" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
@@ -49,7 +49,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -73,8 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
-</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -83,7 +82,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">fill with DONE or n/a after regression testing
+          <t xml:space="preserve">
+fill with DONE or n/a after regression testing
 </t>
         </r>
       </text>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -137,35 +137,10 @@
     <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F01.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> adăugarea unui film nou (titlu, regizor, an aparitie, actori, categorie, cuvinte cheie);</t>
-    </r>
-  </si>
-  <si>
     <t>Observații</t>
   </si>
   <si>
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
   </si>
   <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
@@ -290,9 +265,6 @@
     <t>expected</t>
   </si>
   <si>
-    <t>record added</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -422,9 +394,6 @@
     <t>Re-tested</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Matei  Otniel</t>
   </si>
   <si>
@@ -533,23 +502,107 @@
     <t>error</t>
   </si>
   <si>
-    <t>added</t>
-  </si>
-  <si>
-    <t>aded</t>
-  </si>
-  <si>
     <t>3, 4</t>
   </si>
   <si>
     <t>TC5_EC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7BD88F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>getDateMergedWithTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8B888F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF5AD4E6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFF59762"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8B888F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF5AD4E6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFF59762"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>noTimeDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8B888F"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>h=22</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>record returned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,13 +692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -684,12 +730,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -704,13 +744,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF5AD4E6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7BD88F"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8B888F"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFF59762"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +825,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1156,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1173,9 +1251,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1211,10 +1288,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,20 +1298,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,13 +1337,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,58 +1415,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,19 +1472,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,96 +1496,40 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1759,40 +1839,40 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="40" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -1801,66 +1881,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="21"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+    <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
+    <row r="8" spans="2:10">
+      <c r="B8" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +1948,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1876,42 +1956,44 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
+      <c r="B16" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="1:15">
+      <c r="B18" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:15">
+      <c r="C20" s="105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="31" t="s">
+    <row r="22" spans="1:15">
+      <c r="B22" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1926,9 +2008,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1943,32 +2025,33 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="34"/>
+    <row r="24" spans="1:15" ht="14.45" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B24:N24"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1982,127 +2065,127 @@
   </sheetPr>
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:12">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="G5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="G5" s="95" t="s">
+      <c r="G6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="91" t="s">
+      <c r="H6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="107"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="94"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="47"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -2110,23 +2193,25 @@
       <c r="J8" s="2">
         <v>15</v>
       </c>
-      <c r="K8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="K8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="C9" s="108"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2134,145 +2219,159 @@
       <c r="J9" s="2">
         <v>-1</v>
       </c>
-      <c r="K9" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="K9" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="C10" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="101">
         <v>3</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="97">
         <v>-1</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="97">
         <v>45</v>
       </c>
-      <c r="K10" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="K10" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="C11" s="107"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="101">
         <v>4</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="97">
         <v>25</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="97">
         <v>-1</v>
       </c>
-      <c r="K11" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="52"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="K11" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="103"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
+      <c r="C12" s="108"/>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="104">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="2">
         <v>24</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K12" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="6"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="6"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="6"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="6"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C14"/>
@@ -2281,15 +2380,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2300,307 +2390,313 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="95" t="s">
+      <c r="H6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="97"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="I6" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="58" t="s">
+      <c r="J6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="50"/>
+      <c r="M6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="60">
+        <v>1</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="94"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
-        <v>1</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="47"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="58"/>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="61"/>
       <c r="C8" s="63"/>
       <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="10">
+        <v>84</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="I8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="8">
         <v>-1</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="45"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="61"/>
       <c r="C9" s="63"/>
       <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="13">
+        <v>85</v>
+      </c>
+      <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105">
+      <c r="I9" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="107"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="55"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="61"/>
       <c r="C10" s="63"/>
       <c r="D10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="13">
+        <v>102</v>
+      </c>
+      <c r="G10" s="12">
         <v>3</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="105">
+      <c r="I10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2">
         <v>23</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="2">
         <v>59</v>
       </c>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="N10" s="107"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="61"/>
       <c r="C11" s="63"/>
       <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="10">
+        <v>86</v>
+      </c>
+      <c r="G11" s="9">
         <v>4</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>4</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8">
         <v>24</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="45"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="53">
+      <c r="M11" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="67"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="61"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="60">
         <v>2</v>
       </c>
-      <c r="C12" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
     <mergeCell ref="M11:N11"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2613,444 +2709,459 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="98" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>27</v>
+      <c r="F4" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
-      <c r="I4" s="94" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="80"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+      <c r="I4" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B5" s="77"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="97">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="97">
         <v>15</v>
       </c>
-      <c r="H6" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H6" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="20" t="s">
-        <v>99</v>
+      <c r="C7" s="75"/>
+      <c r="D7" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="97">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="97">
         <v>-1</v>
       </c>
-      <c r="H7" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H7" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="20" t="s">
-        <v>52</v>
+      <c r="C8" s="75"/>
+      <c r="D8" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="97">
         <v>-1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="97">
         <v>45</v>
       </c>
-      <c r="H8" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H8" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="20" t="s">
-        <v>52</v>
+      <c r="C9" s="75"/>
+      <c r="D9" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="8">
+        <v>29</v>
+      </c>
+      <c r="F9" s="97">
         <v>25</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="97">
         <v>-1</v>
       </c>
-      <c r="H9" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
+      <c r="C10" s="75"/>
+      <c r="D10" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="9">
+        <v>96</v>
+      </c>
+      <c r="F10" s="97">
         <v>-1</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="97">
         <v>0</v>
       </c>
-      <c r="H10" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H10" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
+      <c r="C11" s="75"/>
+      <c r="D11" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="105">
+        <v>97</v>
+      </c>
+      <c r="F11" s="97">
         <v>0</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="97">
         <v>0</v>
       </c>
-      <c r="H11" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="20" t="s">
-        <v>33</v>
+      <c r="C12" s="75"/>
+      <c r="D12" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="105">
+        <v>50</v>
+      </c>
+      <c r="F12" s="97">
         <v>23</v>
       </c>
-      <c r="G12" s="105">
+      <c r="G12" s="97">
         <v>59</v>
       </c>
-      <c r="H12" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+      <c r="H12" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="C13" s="76"/>
+      <c r="D13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="97">
         <v>24</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="97">
         <v>0</v>
       </c>
-      <c r="H13" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="110" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
+      <c r="H13" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickTop="1">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="66" t="s">
+    <row r="17" spans="2:16" ht="15.75" thickTop="1">
+      <c r="C17" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="89"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="25" t="s">
+      <c r="N17" s="89"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.45" customHeight="1">
+      <c r="B18" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="D18" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="66" t="s">
+      <c r="E18" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="69"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="G18" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="H18" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="65" t="s">
+      <c r="I18" s="91"/>
+      <c r="J18" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="N18" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="65"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="N18" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="22">
         <v>8</v>
       </c>
-      <c r="D20" s="26">
-        <v>3</v>
-      </c>
-      <c r="E20" s="26">
-        <v>5</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="26">
-        <v>3</v>
-      </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D20" s="24">
+        <v>4</v>
+      </c>
+      <c r="E20" s="24">
+        <v>4</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="81"/>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="24">
+        <v>4</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4</v>
+      </c>
+      <c r="O20" s="24">
+        <v>4</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3067,12 +3178,11 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3081,6 +3191,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3224,22 +3349,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3255,21 +3382,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>